--- a/biology/Zoologie/Encyocrypta_panie/Encyocrypta_panie.xlsx
+++ b/biology/Zoologie/Encyocrypta_panie/Encyocrypta_panie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta panie est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta panie est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur le mont Panié[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur le mont Panié.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle paratype mesure 12 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle paratype mesure 12 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Panié.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
